--- a/CASUAL/LA ACCOUNTING/ABELA, IMELDA.xlsx
+++ b/CASUAL/LA ACCOUNTING/ABELA, IMELDA.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="161">
   <si>
     <t>PERIOD</t>
   </si>
@@ -504,6 +504,21 @@
   </si>
   <si>
     <t>UT(0-0-4)</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/14,29/2023</t>
+  </si>
+  <si>
+    <t>12/18,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1450,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K118" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K120" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1794,12 +1809,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K118"/>
+  <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +1975,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>39.75</v>
+        <v>40.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1970,7 +1985,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>88.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3604,13 +3619,15 @@
         <v>45170</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="40"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="40"/>
       <c r="I88" s="9"/>
@@ -3621,39 +3638,59 @@
       <c r="A89" s="41">
         <v>45200</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="40"/>
+      <c r="B89" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="40">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="48">
+        <v>45233</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="A90" s="41">
+        <v>45231</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="48">
+        <v>45254</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="20"/>
+      <c r="A91" s="41">
+        <v>45261</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
@@ -3665,13 +3702,19 @@
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>158</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="D92" s="40"/>
+      <c r="D92" s="40">
+        <v>2</v>
+      </c>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
@@ -3681,10 +3724,14 @@
       <c r="H92" s="40"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="41"/>
+      <c r="A93" s="47" t="s">
+        <v>157</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
@@ -3700,7 +3747,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="41"/>
+      <c r="A94" s="41">
+        <v>45292</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="40"/>
@@ -3716,7 +3765,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="41"/>
+      <c r="A95" s="41">
+        <v>45323</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="40"/>
@@ -3732,7 +3783,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="41"/>
+      <c r="A96" s="41">
+        <v>45352</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="40"/>
@@ -3748,7 +3801,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="41"/>
+      <c r="A97" s="41">
+        <v>45383</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="40"/>
@@ -3764,7 +3819,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="41"/>
+      <c r="A98" s="41">
+        <v>45413</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
@@ -3780,7 +3837,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41"/>
+      <c r="A99" s="41">
+        <v>45444</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="40"/>
@@ -3796,7 +3855,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41"/>
+      <c r="A100" s="41">
+        <v>45474</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="40"/>
@@ -4084,20 +4145,52 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="42"/>
-      <c r="B118" s="15"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="44"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="40"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="43" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="44"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="40"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="15"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="40"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="42"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="44"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4147,9 +4240,9 @@
   <dimension ref="A2:K204"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A153" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A162" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171:XFD171"/>
+      <selection pane="bottomLeft" activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +4413,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>12.75</v>
+        <v>10.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7924,8 +8017,12 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="41"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="41">
+        <v>45200</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C174" s="13"/>
       <c r="D174" s="40"/>
       <c r="E174" s="9"/>
@@ -7934,14 +8031,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H174" s="40"/>
+      <c r="H174" s="40">
+        <v>1</v>
+      </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20"/>
+      <c r="K174" s="48">
+        <v>45223</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
-      <c r="B175" s="20"/>
+      <c r="B175" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C175" s="13"/>
       <c r="D175" s="40"/>
       <c r="E175" s="9"/>
@@ -7950,10 +8053,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H175" s="40"/>
+      <c r="H175" s="40">
+        <v>1</v>
+      </c>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
+      <c r="K175" s="48">
+        <v>45230</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41"/>
